--- a/target/classes/com/excel/lib/util/SampleExcel.xlsx
+++ b/target/classes/com/excel/lib/util/SampleExcel.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/workspace/ExcelUtil/src/main/java/com/excel/lib/util/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="760" windowWidth="28560" windowHeight="17380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2240" yWindow="760" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -39,21 +39,6 @@
     <t>test123</t>
   </si>
   <si>
-    <t>naveen</t>
-  </si>
-  <si>
-    <t>tom</t>
-  </si>
-  <si>
-    <t>test12345</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>phonenumber</t>
   </si>
   <si>
@@ -61,13 +46,39 @@
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>naveen1</t>
+  </si>
+  <si>
+    <t>tom1</t>
+  </si>
+  <si>
+    <t>test9090</t>
+  </si>
+  <si>
+    <t>peter1</t>
+  </si>
+  <si>
+    <t>pass123</t>
+  </si>
+  <si>
+    <t>steve</t>
+  </si>
+  <si>
+    <t>steve345</t>
+  </si>
+  <si>
+    <t>Kalie</t>
+  </si>
+  <si>
+    <t>kali12333</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -111,11 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,45 +403,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.015625" collapsed="true"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -443,26 +468,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <f>SUM(10+30)</f>
